--- a/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelectPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SelectKing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelectPeriodControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SelectKingControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +73,14 @@
   </si>
   <si>
     <t>SavegameMenuControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectTimesControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -539,47 +539,47 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
